--- a/xz_results.xlsx
+++ b/xz_results.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be82ef303f3cad60/Systems Science/Lab/Necessary Heterogenity in Network Models of Residential Segregation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_496D5DA7037A7C0E6235547658B996FD870D8747" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BE0389-E093-47EC-975E-65C905317715}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Densifications</t>
+  </si>
+  <si>
+    <t>Mean Assortativity</t>
+  </si>
+  <si>
+    <t>Std Assortativity</t>
+  </si>
+  <si>
+    <t>Mean Vacancy Degree Centrality</t>
+  </si>
+  <si>
+    <t>Std Vacancy Degree Centrality</t>
+  </si>
+  <si>
+    <t>Mean T Node Degree Centrality</t>
+  </si>
+  <si>
+    <t>Std T Node Degree Centrality</t>
+  </si>
+  <si>
+    <t>Mean I Node Degree Centrality</t>
+  </si>
+  <si>
+    <t>Std I Node Degree Centrality</t>
+  </si>
+  <si>
+    <t>Mean CCs</t>
+  </si>
+  <si>
+    <t>Std CCs</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +96,108 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4AB1F3-F2E7-47CE-A684-C36A44D36197}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:K6" xr:uid="{0C4AB1F3-F2E7-47CE-A684-C36A44D36197}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{D14A8AC1-264A-4CCE-BBAF-C58739AAC8F3}" name="Densifications"/>
+    <tableColumn id="2" xr3:uid="{A70C1C51-2EC9-4CF0-BE4D-899A1669307E}" name="Mean Assortativity"/>
+    <tableColumn id="3" xr3:uid="{3C5C56F0-CA67-44B7-94FE-FB5FC7C02468}" name="Std Assortativity"/>
+    <tableColumn id="4" xr3:uid="{21D9A296-DEAA-49E9-9679-7BAEB7AFF500}" name="Mean CCs"/>
+    <tableColumn id="5" xr3:uid="{E16EAE05-E300-48A1-BC31-8D6C718DBF66}" name="Std CCs"/>
+    <tableColumn id="6" xr3:uid="{F7A30046-3B7B-433C-811B-7CA53E245A40}" name="Mean Vacancy Degree Centrality"/>
+    <tableColumn id="7" xr3:uid="{2B1E0A1A-8822-4F11-AC61-40E36B724170}" name="Std Vacancy Degree Centrality"/>
+    <tableColumn id="8" xr3:uid="{0F7CDBA7-85D5-425D-A987-68811248EA02}" name="Mean T Node Degree Centrality"/>
+    <tableColumn id="9" xr3:uid="{F93CA1F8-842C-4453-9F41-56562904A74E}" name="Std T Node Degree Centrality"/>
+    <tableColumn id="10" xr3:uid="{ED23125D-8E3F-4100-B33A-B822B6194B6F}" name="Mean I Node Degree Centrality"/>
+    <tableColumn id="11" xr3:uid="{B6D55A70-32E4-453C-BCAC-C4CFC296EE3D}" name="Std I Node Degree Centrality"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,267 +484,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Densifications</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Assortativity</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Std Assortativity</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Connected Components</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Std Connected Components</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Mean Vacancy Degree Centrality</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Std Vacancy Degree Centrality</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Mean T Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std T Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mean I Node Degree Centrality</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Std I Node Degree Centrality</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5335072193324669</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03195519800977453</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="B2">
+        <v>0.53350721933246692</v>
+      </c>
+      <c r="C2">
+        <v>3.1955198009774533E-2</v>
+      </c>
+      <c r="D2">
         <v>2.16</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.083697374731525</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.003857932581391259</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.40143062038296e-05</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.003797774573466996</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.653969589858269e-05</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.003758353813319908</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.221596242856941e-05</v>
+      <c r="E2">
+        <v>1.0836973747315251</v>
+      </c>
+      <c r="F2">
+        <v>3.857932581391259E-3</v>
+      </c>
+      <c r="G2">
+        <v>2.40143062038296E-5</v>
+      </c>
+      <c r="H2">
+        <v>3.797774573466996E-3</v>
+      </c>
+      <c r="I2">
+        <v>1.6539695898582691E-5</v>
+      </c>
+      <c r="J2">
+        <v>3.7583538133199078E-3</v>
+      </c>
+      <c r="K2">
+        <v>4.2215962428569411E-5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>32</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.502280074042577</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04937490285452412</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3">
+        <v>0.50228007404257702</v>
+      </c>
+      <c r="C3">
+        <v>4.9374902854524123E-2</v>
+      </c>
+      <c r="D3">
         <v>1.9</v>
       </c>
-      <c r="F3" t="n">
+      <c r="E3">
         <v>1.014889156509222</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.007719362931938012</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0008651398741063715</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.006978254674561615</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0003482280606031285</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.006636030570707019</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0005324738987987534</v>
+      <c r="F3">
+        <v>7.7193629319380116E-3</v>
+      </c>
+      <c r="G3">
+        <v>8.651398741063715E-4</v>
+      </c>
+      <c r="H3">
+        <v>6.9782546745616146E-3</v>
+      </c>
+      <c r="I3">
+        <v>3.4822806060312849E-4</v>
+      </c>
+      <c r="J3">
+        <v>6.6360305707070192E-3</v>
+      </c>
+      <c r="K3">
+        <v>5.3247389879875341E-4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>64</v>
       </c>
-      <c r="C4" t="n">
+      <c r="B4">
         <v>0.4606517172623476</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.05990243575318741</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4">
+        <v>5.9902435753187412E-2</v>
+      </c>
+      <c r="D4">
         <v>1.45</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.6982120021884471</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01111140325139057</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0009483801874477904</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0100421576632857</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0004899443563680781</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.009539938133497064</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0006464686725545417</v>
+      <c r="E4">
+        <v>0.69821200218844715</v>
+      </c>
+      <c r="F4">
+        <v>1.111140325139057E-2</v>
+      </c>
+      <c r="G4">
+        <v>9.4838018744779044E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.00421576632857E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.8994435636807814E-4</v>
+      </c>
+      <c r="J4">
+        <v>9.5399381334970636E-3</v>
+      </c>
+      <c r="K4">
+        <v>6.4646867255454166E-4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>96</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.4411806157999588</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.06545904186924219</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B5">
+        <v>0.44118061579995882</v>
+      </c>
+      <c r="C5">
+        <v>6.5459041869242188E-2</v>
+      </c>
+      <c r="D5">
         <v>1.28</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.5306599664568639</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01384425257602703</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0009858188806562132</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01258829091444737</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0004806517768024152</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01180548779333982</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0008259829867371317</v>
+      <c r="E5">
+        <v>0.53065996645686386</v>
+      </c>
+      <c r="F5">
+        <v>1.3844252576027029E-2</v>
+      </c>
+      <c r="G5">
+        <v>9.8581888065621317E-4</v>
+      </c>
+      <c r="H5">
+        <v>1.258829091444737E-2</v>
+      </c>
+      <c r="I5">
+        <v>4.8065177680241521E-4</v>
+      </c>
+      <c r="J5">
+        <v>1.1805487793339821E-2</v>
+      </c>
+      <c r="K5">
+        <v>8.2598298673713173E-4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>128</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6">
         <v>0.3747087393112371</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.05944613502263845</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="C6">
+        <v>5.9446135022638451E-2</v>
+      </c>
+      <c r="D6">
         <v>1.18</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.4975942121849891</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01603888984134804</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.001008900448706668</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01483777917172109</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.000551243597233636</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01399626873910193</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.0008139828948988565</v>
+      <c r="E6">
+        <v>0.49759421218498912</v>
+      </c>
+      <c r="F6">
+        <v>1.603888984134804E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.008900448706668E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.4837779171721089E-2</v>
+      </c>
+      <c r="I6">
+        <v>5.5124359723363601E-4</v>
+      </c>
+      <c r="J6">
+        <v>1.399626873910193E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.139828948988565E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/xz_results.xlsx
+++ b/xz_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be82ef303f3cad60/Systems Science/Lab/Necessary Heterogenity in Network Models of Residential Segregation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_496D5DA7037A7C0E6235547658B996FD870D8747" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06BE0389-E093-47EC-975E-65C905317715}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_496D048F0060540F62355476584F36FFB59F8645" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E0BCBF8-2470-4BF5-8546-A30CA0F35DB8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,12 @@
     <t>Std Assortativity</t>
   </si>
   <si>
+    <t>Mean Connected Components</t>
+  </si>
+  <si>
+    <t>Std Connected Components</t>
+  </si>
+  <si>
     <t>Mean Vacancy Degree Centrality</t>
   </si>
   <si>
@@ -47,19 +53,16 @@
   </si>
   <si>
     <t>Std I Node Degree Centrality</t>
-  </si>
-  <si>
-    <t>Mean CCs</t>
-  </si>
-  <si>
-    <t>Std CCs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,12 +74,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,7 +99,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -117,57 +116,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,26 +132,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C4AB1F3-F2E7-47CE-A684-C36A44D36197}" name="Table1" displayName="Table1" ref="A1:K6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:K6" xr:uid="{0C4AB1F3-F2E7-47CE-A684-C36A44D36197}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D14A8AC1-264A-4CCE-BBAF-C58739AAC8F3}" name="Densifications"/>
-    <tableColumn id="2" xr3:uid="{A70C1C51-2EC9-4CF0-BE4D-899A1669307E}" name="Mean Assortativity"/>
-    <tableColumn id="3" xr3:uid="{3C5C56F0-CA67-44B7-94FE-FB5FC7C02468}" name="Std Assortativity"/>
-    <tableColumn id="4" xr3:uid="{21D9A296-DEAA-49E9-9679-7BAEB7AFF500}" name="Mean CCs"/>
-    <tableColumn id="5" xr3:uid="{E16EAE05-E300-48A1-BC31-8D6C718DBF66}" name="Std CCs"/>
-    <tableColumn id="6" xr3:uid="{F7A30046-3B7B-433C-811B-7CA53E245A40}" name="Mean Vacancy Degree Centrality"/>
-    <tableColumn id="7" xr3:uid="{2B1E0A1A-8822-4F11-AC61-40E36B724170}" name="Std Vacancy Degree Centrality"/>
-    <tableColumn id="8" xr3:uid="{0F7CDBA7-85D5-425D-A987-68811248EA02}" name="Mean T Node Degree Centrality"/>
-    <tableColumn id="9" xr3:uid="{F93CA1F8-842C-4453-9F41-56562904A74E}" name="Std T Node Degree Centrality"/>
-    <tableColumn id="10" xr3:uid="{ED23125D-8E3F-4100-B33A-B822B6194B6F}" name="Mean I Node Degree Centrality"/>
-    <tableColumn id="11" xr3:uid="{B6D55A70-32E4-453C-BCAC-C4CFC296EE3D}" name="Std I Node Degree Centrality"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,241 +419,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.84521591407184926</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.5990046293016648E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.480675521510368</v>
+      </c>
+      <c r="G2" s="2">
+        <v>3.8243380711626262E-3</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2.4845741628713001E-5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.7938552136124351E-3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.997128928470821E-5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3.728379766716923E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3.701740635650586E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.86446148926403366</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.7786234741189089E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.5363593329686911</v>
+      </c>
+      <c r="G3" s="2">
+        <v>5.3046451818509746E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6.2477554825047935E-4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6.9308952902237646E-3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3.5487707999518802E-4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5.0269052029203384E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.335728956227993E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.84652512508371003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.973916331481679E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.260912368089075</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.3531462653842238E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.4752880867839406E-4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.01183634691701E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.0025336073978557E-4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>6.28764574978837E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5.8414733733457111E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.82580655660210533</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.3568248705198251E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1769027147559821</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.131907143720037E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.0013097603845339E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.2663003871293609E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.6197630379095013E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>7.7705701221187041E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.0049905406634817E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.53350721933246692</v>
-      </c>
-      <c r="C2">
-        <v>3.1955198009774533E-2</v>
-      </c>
-      <c r="D2">
-        <v>2.16</v>
-      </c>
-      <c r="E2">
-        <v>1.0836973747315251</v>
-      </c>
-      <c r="F2">
-        <v>3.857932581391259E-3</v>
-      </c>
-      <c r="G2">
-        <v>2.40143062038296E-5</v>
-      </c>
-      <c r="H2">
-        <v>3.797774573466996E-3</v>
-      </c>
-      <c r="I2">
-        <v>1.6539695898582691E-5</v>
-      </c>
-      <c r="J2">
-        <v>3.7583538133199078E-3</v>
-      </c>
-      <c r="K2">
-        <v>4.2215962428569411E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>0.50228007404257702</v>
-      </c>
-      <c r="C3">
-        <v>4.9374902854524123E-2</v>
-      </c>
-      <c r="D3">
-        <v>1.9</v>
-      </c>
-      <c r="E3">
-        <v>1.014889156509222</v>
-      </c>
-      <c r="F3">
-        <v>7.7193629319380116E-3</v>
-      </c>
-      <c r="G3">
-        <v>8.651398741063715E-4</v>
-      </c>
-      <c r="H3">
-        <v>6.9782546745616146E-3</v>
-      </c>
-      <c r="I3">
-        <v>3.4822806060312849E-4</v>
-      </c>
-      <c r="J3">
-        <v>6.6360305707070192E-3</v>
-      </c>
-      <c r="K3">
-        <v>5.3247389879875341E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>64</v>
-      </c>
-      <c r="B4">
-        <v>0.4606517172623476</v>
-      </c>
-      <c r="C4">
-        <v>5.9902435753187412E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.45</v>
-      </c>
-      <c r="E4">
-        <v>0.69821200218844715</v>
-      </c>
-      <c r="F4">
-        <v>1.111140325139057E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.4838018744779044E-4</v>
-      </c>
-      <c r="H4">
-        <v>1.00421576632857E-2</v>
-      </c>
-      <c r="I4">
-        <v>4.8994435636807814E-4</v>
-      </c>
-      <c r="J4">
-        <v>9.5399381334970636E-3</v>
-      </c>
-      <c r="K4">
-        <v>6.4646867255454166E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>96</v>
-      </c>
-      <c r="B5">
-        <v>0.44118061579995882</v>
-      </c>
-      <c r="C5">
-        <v>6.5459041869242188E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.28</v>
-      </c>
-      <c r="E5">
-        <v>0.53065996645686386</v>
-      </c>
-      <c r="F5">
-        <v>1.3844252576027029E-2</v>
-      </c>
-      <c r="G5">
-        <v>9.8581888065621317E-4</v>
-      </c>
-      <c r="H5">
-        <v>1.258829091444737E-2</v>
-      </c>
-      <c r="I5">
-        <v>4.8065177680241521E-4</v>
-      </c>
-      <c r="J5">
-        <v>1.1805487793339821E-2</v>
-      </c>
-      <c r="K5">
-        <v>8.2598298673713173E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B6">
         <v>128</v>
       </c>
-      <c r="B6">
-        <v>0.3747087393112371</v>
-      </c>
-      <c r="C6">
-        <v>5.9446135022638451E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.18</v>
-      </c>
-      <c r="E6">
-        <v>0.49759421218498912</v>
-      </c>
-      <c r="F6">
-        <v>1.603888984134804E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.008900448706668E-3</v>
-      </c>
-      <c r="H6">
-        <v>1.4837779171721089E-2</v>
-      </c>
-      <c r="I6">
-        <v>5.5124359723363601E-4</v>
-      </c>
-      <c r="J6">
-        <v>1.399626873910193E-2</v>
-      </c>
-      <c r="K6">
-        <v>8.139828948988565E-4</v>
+      <c r="C6" s="2">
+        <v>0.80091623584486726</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.2774387410804147E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.8111103500757465</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.408572680648093E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.3758526769577516E-4</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.509378619860309E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.3099408376892216E-4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>9.3574117763365206E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.251620387928098E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>